--- a/ExampleHPV.xlsx
+++ b/ExampleHPV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA059A4E-3A35-480E-ADB3-D4C6A49950BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D275F8-03DE-4BC6-8817-3295A4C1F96E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13335" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="244">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -733,6 +733,39 @@
   </si>
   <si>
     <t>unknown,low</t>
+  </si>
+  <si>
+    <t>hasCancer</t>
+  </si>
+  <si>
+    <t>veryHighRisk</t>
+  </si>
+  <si>
+    <t>highRisk</t>
+  </si>
+  <si>
+    <t>repeatTest</t>
+  </si>
+  <si>
+    <t>atRisk</t>
+  </si>
+  <si>
+    <t>atSomeRisk</t>
+  </si>
+  <si>
+    <t>toBeDetermine</t>
+  </si>
+  <si>
+    <t>testingIfCured</t>
+  </si>
+  <si>
+    <t>ageOut</t>
+  </si>
+  <si>
+    <t>ImmuneCare</t>
+  </si>
+  <si>
+    <t>lowRisk</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1322,33 +1358,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1360,9 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1695,11 +1728,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1716,7 +1749,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1727,7 +1760,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1769,7 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1778,7 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1787,7 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1763,7 +1796,7 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1805,7 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="72" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1783,7 +1816,7 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +1825,7 @@
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1801,7 +1834,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1810,7 +1843,7 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1852,7 @@
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1830,7 +1863,7 @@
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1872,7 @@
       <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1848,7 +1881,7 @@
       <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
@@ -1879,10 +1912,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
@@ -1913,7 +1946,7 @@
   <dimension ref="B2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,13 +2061,13 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="54" t="s">
         <v>39</v>
       </c>
@@ -2045,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
@@ -2058,13 +2091,13 @@
         <v>230</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="86"/>
       <c r="N5" s="55" t="s">
         <v>39</v>
       </c>
@@ -2075,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -2088,13 +2121,13 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="55" t="s">
         <v>45</v>
       </c>
@@ -2105,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
@@ -2118,13 +2151,13 @@
         <v>231</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="55" t="s">
         <v>45</v>
       </c>
@@ -2135,7 +2168,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
@@ -2148,13 +2181,13 @@
       <c r="F8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="83"/>
       <c r="N8" s="55" t="s">
         <v>45</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>41</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
@@ -2195,19 +2228,19 @@
         <v>41</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>7</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="87" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2227,19 +2260,19 @@
         <v>41</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>8</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2257,7 +2290,7 @@
         <v>64</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -2270,14 +2303,14 @@
       <c r="D12" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="56" t="s">
         <v>232</v>
       </c>
@@ -2291,7 +2324,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
@@ -2302,14 +2335,14 @@
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="56" t="s">
         <v>232</v>
       </c>
@@ -2323,7 +2356,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
@@ -2336,26 +2369,26 @@
       <c r="D14" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="86"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="55" t="s">
         <v>57</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
@@ -2366,26 +2399,26 @@
         <v>56</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="55" t="s">
         <v>57</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="91" t="s">
+      <c r="P15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
@@ -2396,12 +2429,12 @@
         <v>74</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="11" t="s">
         <v>220</v>
       </c>
@@ -2413,7 +2446,7 @@
       <c r="O16" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="12" t="s">
@@ -2430,12 +2463,12 @@
       <c r="D17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="11" t="s">
         <v>220</v>
       </c>
@@ -2447,7 +2480,7 @@
       <c r="O17" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P17" s="91" t="s">
+      <c r="P17" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="12" t="s">
@@ -2462,26 +2495,26 @@
         <v>74</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="86"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="55" t="s">
         <v>75</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
@@ -2494,34 +2527,34 @@
       <c r="D19" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="55" t="s">
         <v>75</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P19" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>17</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -2539,19 +2572,19 @@
       <c r="O20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>18</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
@@ -2569,19 +2602,19 @@
       <c r="O21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>19</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
@@ -2605,15 +2638,15 @@
         <v>64</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>20</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="11"/>
@@ -2631,19 +2664,19 @@
       <c r="O23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="91" t="s">
+      <c r="P23" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
         <v>21</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="11"/>
@@ -2663,7 +2696,7 @@
       <c r="O24" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P24" s="91" t="s">
+      <c r="P24" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q24" s="12" t="s">
@@ -2674,8 +2707,8 @@
       <c r="B25" s="22">
         <v>22</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="11"/>
@@ -2701,15 +2734,15 @@
         <v>91</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>23</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="11" t="s">
@@ -2737,15 +2770,15 @@
         <v>91</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>24</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="11"/>
@@ -2771,15 +2804,15 @@
         <v>91</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="22">
         <v>25</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
@@ -2810,8 +2843,8 @@
       <c r="B29" s="22">
         <v>26</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="11"/>
@@ -2827,11 +2860,11 @@
       <c r="O29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="91" t="s">
+      <c r="P29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2888,7 @@
       <c r="O30" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="91" t="s">
+      <c r="P30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="12" t="s">
@@ -2864,6 +2897,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
     <mergeCell ref="C20:C29"/>
     <mergeCell ref="D20:D29"/>
     <mergeCell ref="K18:K19"/>
@@ -2875,26 +2928,6 @@
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="L4:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2933,14 +2966,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -3504,12 +3537,12 @@
         <v>21</v>
       </c>
       <c r="J26" s="23"/>
-      <c r="M26" s="89" t="s">
+      <c r="M26" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
       <c r="Q26"/>
       <c r="S26" s="28"/>
     </row>

--- a/ExampleHPV.xlsx
+++ b/ExampleHPV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D275F8-03DE-4BC6-8817-3295A4C1F96E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7266D-8514-4752-907B-1CE4A3883C32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13335" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
   </bookViews>
@@ -753,9 +753,6 @@
     <t>atSomeRisk</t>
   </si>
   <si>
-    <t>toBeDetermine</t>
-  </si>
-  <si>
     <t>testingIfCured</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>lowRisk</t>
+  </si>
+  <si>
+    <t>toBeDetermined</t>
   </si>
 </sst>
 </file>
@@ -1358,31 +1358,31 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,7 +1946,7 @@
   <dimension ref="B2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2053,7 @@
       <c r="B4" s="66">
         <v>1</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="85" t="s">
         <v>226</v>
       </c>
       <c r="D4" s="64" t="s">
@@ -2061,13 +2061,13 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="54" t="s">
         <v>39</v>
       </c>
@@ -2085,19 +2085,19 @@
       <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
         <v>230</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="86"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="55" t="s">
         <v>39</v>
       </c>
@@ -2115,19 +2115,19 @@
       <c r="B6" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="86"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="55" t="s">
         <v>45</v>
       </c>
@@ -2145,19 +2145,19 @@
       <c r="B7" s="22">
         <v>4</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="86"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="55" t="s">
         <v>45</v>
       </c>
@@ -2175,19 +2175,19 @@
       <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="83"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="55" t="s">
         <v>45</v>
       </c>
@@ -2235,12 +2235,12 @@
       <c r="B10" s="22">
         <v>7</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="83" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2267,12 +2267,12 @@
       <c r="B11" s="22">
         <v>8</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2303,14 +2303,14 @@
       <c r="D12" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="56" t="s">
         <v>232</v>
       </c>
@@ -2335,14 +2335,14 @@
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="56" t="s">
         <v>232</v>
       </c>
@@ -2369,15 +2369,15 @@
       <c r="D14" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="82"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="55" t="s">
         <v>57</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
@@ -2399,15 +2399,15 @@
         <v>56</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="83"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="55" t="s">
         <v>57</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
@@ -2429,12 +2429,12 @@
         <v>74</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="11" t="s">
         <v>220</v>
       </c>
@@ -2463,12 +2463,12 @@
       <c r="D17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="11" t="s">
         <v>220</v>
       </c>
@@ -2495,15 +2495,15 @@
         <v>74</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="55" t="s">
         <v>75</v>
       </c>
@@ -2527,15 +2527,15 @@
       <c r="D19" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="83"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="55" t="s">
         <v>75</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="B20" s="22">
         <v>17</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -2576,15 +2576,15 @@
         <v>15</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>18</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
@@ -2606,15 +2606,15 @@
         <v>15</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>19</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
@@ -2638,15 +2638,15 @@
         <v>64</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>20</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="11"/>
@@ -2668,15 +2668,15 @@
         <v>15</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
         <v>21</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="11"/>
@@ -2707,8 +2707,8 @@
       <c r="B25" s="22">
         <v>22</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="11"/>
@@ -2734,15 +2734,15 @@
         <v>91</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>23</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="11" t="s">
@@ -2770,15 +2770,15 @@
         <v>91</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>24</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="11"/>
@@ -2804,15 +2804,15 @@
         <v>91</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="22">
         <v>25</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
@@ -2843,8 +2843,8 @@
       <c r="B29" s="22">
         <v>26</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="11"/>
@@ -2864,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -2897,26 +2897,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
     <mergeCell ref="C20:C29"/>
     <mergeCell ref="D20:D29"/>
     <mergeCell ref="K18:K19"/>
@@ -2928,6 +2908,26 @@
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExampleHPV.xlsx
+++ b/ExampleHPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7C2DB-DC5C-4E21-8D22-0B980D89F8C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3E68C-4B09-4BF7-8FAF-657A2A6CB287}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13965" yWindow="-15990" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="182">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -153,9 +153,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>Particpant Age</t>
-  </si>
-  <si>
     <t>S6</t>
   </si>
   <si>
@@ -369,15 +363,9 @@
     <t>CR1-16</t>
   </si>
   <si>
-    <t>Determine CervicalRisk1</t>
-  </si>
-  <si>
     <t>FirstTestOfCervicalRisk</t>
   </si>
   <si>
-    <t>Decision DetermineCervicalRisk1</t>
-  </si>
-  <si>
     <t>Decisions</t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>"low"</t>
-  </si>
-  <si>
     <t>&gt;= 70</t>
   </si>
   <si>
@@ -586,6 +571,15 @@
   </si>
   <si>
     <t>Too young with unsat result</t>
+  </si>
+  <si>
+    <t>Decision CervicalRisk</t>
+  </si>
+  <si>
+    <t>Determine CervicalRisk</t>
+  </si>
+  <si>
+    <t>"not applicable"</t>
   </si>
 </sst>
 </file>
@@ -976,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,69 +1116,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1278,6 +1209,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1598,7 +1600,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,11 +1611,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1630,7 +1632,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1641,7 +1643,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1661,7 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1670,7 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1679,7 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1697,7 +1699,7 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1706,7 +1708,7 @@
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1717,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1726,7 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1735,7 @@
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="89" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1744,7 +1746,7 @@
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1762,14 +1764,13 @@
       <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="3">
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C4:C9"/>
@@ -1783,7 +1784,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,32 +1793,29 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="64"/>
+    <row r="2" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1826,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F764835-93D8-43D9-8976-5A5A359D9B56}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1854,7 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -1882,7 +1880,7 @@
     </row>
     <row r="3" spans="2:24" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>18</v>
@@ -1934,152 +1932,152 @@
       <c r="B4" s="50">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>126</v>
+      <c r="C4" s="103" t="s">
+        <v>121</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="72"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="105"/>
       <c r="N4" s="38" t="s">
         <v>38</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="72"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="39" t="s">
         <v>38</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="72"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="105"/>
       <c r="N6" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="72"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="102"/>
       <c r="N8" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
@@ -2087,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2100,60 +2098,60 @@
       <c r="L9" s="11"/>
       <c r="M9" s="40"/>
       <c r="N9" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>50</v>
+      <c r="C10" s="106" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="40"/>
       <c r="N10" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2162,16 +2160,16 @@
       <c r="L11" s="11"/>
       <c r="M11" s="40"/>
       <c r="N11" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -2179,33 +2177,33 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="40" t="s">
-        <v>132</v>
-      </c>
       <c r="N12" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
@@ -2213,31 +2211,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>51</v>
-      </c>
       <c r="O13" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
@@ -2245,31 +2243,31 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="68"/>
+        <v>124</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="101"/>
       <c r="N14" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
@@ -2277,29 +2275,29 @@
         <v>12</v>
       </c>
       <c r="C15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="39" t="s">
-        <v>51</v>
-      </c>
       <c r="O15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
@@ -2307,31 +2305,31 @@
         <v>13</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
       <c r="K16" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="40"/>
       <c r="N16" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P16" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -2339,33 +2337,33 @@
         <v>14</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
       <c r="K17" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="40"/>
       <c r="N17" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P17" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
@@ -2373,29 +2371,29 @@
         <v>15</v>
       </c>
       <c r="C18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="39" t="s">
-        <v>63</v>
-      </c>
       <c r="O18" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
@@ -2403,44 +2401,44 @@
         <v>16</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="69"/>
+        <v>53</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <v>17</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -2448,116 +2446,116 @@
       <c r="L20" s="11"/>
       <c r="M20" s="40"/>
       <c r="N20" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P20" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <v>18</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="40"/>
       <c r="N21" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="40"/>
       <c r="N23" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <v>21</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="11"/>
@@ -2565,31 +2563,31 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P24" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>22</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="11"/>
@@ -2597,69 +2595,69 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="M25" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <v>24</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="11"/>
@@ -2667,33 +2665,33 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
         <v>25</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="11"/>
@@ -2701,31 +2699,31 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="Q28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>26</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
@@ -2736,16 +2734,16 @@
       <c r="L29" s="11"/>
       <c r="M29" s="40"/>
       <c r="N29" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -2764,16 +2762,16 @@
       <c r="L30" s="11"/>
       <c r="M30" s="40"/>
       <c r="N30" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P30" s="51" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2818,7 @@
   <dimension ref="B2:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,18 +2842,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="74" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="16"/>
@@ -2864,48 +2862,48 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>144</v>
+      <c r="H3" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>139</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="99" t="s">
+      <c r="M3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="100" t="s">
-        <v>144</v>
+      <c r="O3" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2916,29 +2914,29 @@
       <c r="F4" s="50">
         <v>64</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="82">
+      <c r="G4" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="61">
         <v>1</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>145</v>
+      <c r="I4" s="61" t="s">
+        <v>140</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="82">
+        <v>46</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="61">
         <v>1</v>
       </c>
-      <c r="P4" s="98" t="s">
-        <v>162</v>
+      <c r="P4" s="77" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -2949,29 +2947,29 @@
       <c r="F5" s="17">
         <v>72</v>
       </c>
-      <c r="G5" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="76">
+      <c r="G5" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="55">
         <v>2</v>
       </c>
-      <c r="I5" s="76" t="s">
-        <v>146</v>
+      <c r="I5" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M5" s="19"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="76">
+      <c r="N5" s="82"/>
+      <c r="O5" s="55">
         <v>2</v>
       </c>
-      <c r="P5" s="96" t="s">
-        <v>162</v>
+      <c r="P5" s="75" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -2982,29 +2980,29 @@
       <c r="F6" s="17">
         <v>64</v>
       </c>
-      <c r="G6" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="76">
+      <c r="G6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="55">
         <v>3</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>147</v>
+      <c r="I6" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="103"/>
-      <c r="O6" s="76">
+        <v>72</v>
+      </c>
+      <c r="N6" s="82"/>
+      <c r="O6" s="55">
         <v>3</v>
       </c>
-      <c r="P6" s="96" t="s">
-        <v>162</v>
+      <c r="P6" s="75" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -3015,29 +3013,29 @@
       <c r="F7" s="17">
         <v>72</v>
       </c>
-      <c r="G7" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="76">
+      <c r="G7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="55">
         <v>4</v>
       </c>
-      <c r="I7" s="76" t="s">
-        <v>148</v>
+      <c r="I7" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="76">
+        <v>74</v>
+      </c>
+      <c r="N7" s="82"/>
+      <c r="O7" s="55">
         <v>4</v>
       </c>
-      <c r="P7" s="96" t="s">
-        <v>162</v>
+      <c r="P7" s="75" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -3049,28 +3047,28 @@
         <v>64</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="76">
+        <v>54</v>
+      </c>
+      <c r="H8" s="55">
         <v>5</v>
       </c>
-      <c r="I8" s="76" t="s">
-        <v>149</v>
+      <c r="I8" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8" s="19"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="76">
+      <c r="N8" s="82"/>
+      <c r="O8" s="55">
         <v>5</v>
       </c>
-      <c r="P8" s="96" t="s">
-        <v>163</v>
+      <c r="P8" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -3082,28 +3080,28 @@
         <v>72</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="76">
+        <v>54</v>
+      </c>
+      <c r="H9" s="55">
         <v>6</v>
       </c>
-      <c r="I9" s="76" t="s">
-        <v>150</v>
+      <c r="I9" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="76">
+      <c r="N9" s="82"/>
+      <c r="O9" s="55">
         <v>6</v>
       </c>
-      <c r="P9" s="96" t="s">
-        <v>163</v>
+      <c r="P9" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -3114,29 +3112,29 @@
       <c r="F10" s="17">
         <v>64</v>
       </c>
-      <c r="G10" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="76">
+      <c r="G10" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="55">
         <v>7</v>
       </c>
-      <c r="I10" s="76" t="s">
-        <v>151</v>
+      <c r="I10" s="55" t="s">
+        <v>146</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="76">
+        <v>80</v>
+      </c>
+      <c r="N10" s="82"/>
+      <c r="O10" s="55">
         <v>7</v>
       </c>
-      <c r="P10" s="96" t="s">
-        <v>163</v>
+      <c r="P10" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
@@ -3147,99 +3145,99 @@
       <c r="F11" s="17">
         <v>72</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="76">
+      <c r="G11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="55">
         <v>8</v>
       </c>
-      <c r="I11" s="76" t="s">
-        <v>152</v>
+      <c r="I11" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="76">
+        <v>82</v>
+      </c>
+      <c r="N11" s="82"/>
+      <c r="O11" s="55">
         <v>8</v>
       </c>
-      <c r="P11" s="96" t="s">
-        <v>163</v>
+      <c r="P11" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17">
         <v>64</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="76">
+      <c r="G12" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="55">
         <v>9</v>
       </c>
-      <c r="I12" s="76" t="s">
-        <v>153</v>
+      <c r="I12" s="55" t="s">
+        <v>148</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="103"/>
-      <c r="O12" s="76">
+        <v>84</v>
+      </c>
+      <c r="N12" s="82"/>
+      <c r="O12" s="55">
         <v>9</v>
       </c>
-      <c r="P12" s="96" t="s">
-        <v>163</v>
+      <c r="P12" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <v>72</v>
       </c>
-      <c r="G13" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="76">
+      <c r="G13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="55">
         <v>10</v>
       </c>
-      <c r="I13" s="76" t="s">
-        <v>154</v>
+      <c r="I13" s="55" t="s">
+        <v>149</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="76">
+      <c r="N13" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="55">
         <v>10</v>
       </c>
-      <c r="P13" s="96" t="s">
-        <v>163</v>
+      <c r="P13" s="75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
@@ -3250,27 +3248,27 @@
       <c r="F14" s="17">
         <v>22</v>
       </c>
-      <c r="G14" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="76">
+      <c r="G14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="55">
         <v>11</v>
       </c>
-      <c r="I14" s="76" t="s">
-        <v>155</v>
+      <c r="I14" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="76">
+      <c r="N14" s="82"/>
+      <c r="O14" s="55">
         <v>11</v>
       </c>
-      <c r="P14" s="96" t="s">
-        <v>164</v>
+      <c r="P14" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -3278,34 +3276,34 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="17">
         <v>64</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="76">
+        <v>54</v>
+      </c>
+      <c r="H15" s="55">
         <v>12</v>
       </c>
-      <c r="I15" s="76" t="s">
-        <v>156</v>
+      <c r="I15" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="76">
+      <c r="N15" s="82"/>
+      <c r="O15" s="55">
         <v>12</v>
       </c>
-      <c r="P15" s="96" t="s">
-        <v>165</v>
+      <c r="P15" s="75" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
@@ -3313,32 +3311,32 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="17">
         <v>64</v>
       </c>
-      <c r="G16" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="76">
+      <c r="G16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="55">
         <v>13</v>
       </c>
-      <c r="I16" s="76" t="s">
-        <v>157</v>
+      <c r="I16" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="76">
+      <c r="N16" s="82"/>
+      <c r="O16" s="55">
         <v>13</v>
       </c>
-      <c r="P16" s="96" t="s">
-        <v>166</v>
+      <c r="P16" s="75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -3347,16 +3345,16 @@
       <c r="D17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="76">
+      <c r="N17" s="82"/>
+      <c r="O17" s="55">
         <v>14</v>
       </c>
-      <c r="P17" s="96" t="s">
-        <v>166</v>
+      <c r="P17" s="75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -3365,18 +3363,18 @@
       <c r="D18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M18" s="19"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="76">
+      <c r="N18" s="82"/>
+      <c r="O18" s="55">
         <v>15</v>
       </c>
-      <c r="P18" s="96" t="s">
-        <v>168</v>
+      <c r="P18" s="75" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -3385,18 +3383,18 @@
       <c r="D19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M19" s="19"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="76">
+      <c r="N19" s="82"/>
+      <c r="O19" s="55">
         <v>16</v>
       </c>
-      <c r="P19" s="96" t="s">
-        <v>168</v>
+      <c r="P19" s="75" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
@@ -3405,16 +3403,16 @@
       <c r="D20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="76">
+      <c r="N20" s="82"/>
+      <c r="O20" s="55">
         <v>17</v>
       </c>
-      <c r="P20" s="96" t="s">
-        <v>167</v>
+      <c r="P20" s="75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -3430,7 +3428,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -3442,32 +3440,32 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="G24" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="100" t="s">
-        <v>144</v>
+      <c r="H24" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>139</v>
       </c>
       <c r="L24" s="18"/>
       <c r="P24"/>
@@ -3476,758 +3474,758 @@
       <c r="B25" s="52">
         <v>1</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="65">
         <v>1</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>75</v>
+      <c r="G25" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="57">
+        <v>1</v>
+      </c>
+      <c r="C26" s="59">
+        <v>2</v>
+      </c>
+      <c r="D26" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="57">
+        <v>2</v>
+      </c>
+      <c r="C27" s="59">
+        <v>3</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="57">
+        <v>2</v>
+      </c>
+      <c r="C28" s="59">
+        <v>4</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="57">
+        <v>3</v>
+      </c>
+      <c r="C29" s="59">
+        <v>5</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="57">
+        <v>3</v>
+      </c>
+      <c r="C30" s="59">
+        <v>6</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="57">
+        <v>4</v>
+      </c>
+      <c r="C31" s="59">
+        <v>7</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="57">
+        <v>4</v>
+      </c>
+      <c r="C32" s="59">
+        <v>8</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="57">
+        <v>4</v>
+      </c>
+      <c r="C33" s="59">
+        <v>9</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="57">
+        <v>5</v>
+      </c>
+      <c r="C34" s="59">
+        <v>10</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="57">
+        <v>1</v>
+      </c>
+      <c r="C35" s="59">
+        <v>11</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="78">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="57">
+        <v>2</v>
+      </c>
+      <c r="C36" s="59">
+        <v>14</v>
+      </c>
+      <c r="D36" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="57">
+        <v>3</v>
+      </c>
+      <c r="C37" s="59">
+        <v>10</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="57">
+        <v>3</v>
+      </c>
+      <c r="C38" s="59">
+        <v>13</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="57">
         <v>1</v>
       </c>
-      <c r="C26" s="80">
-        <v>2</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="104" t="s">
+      <c r="C39" s="59">
+        <v>15</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="78">
-        <v>2</v>
-      </c>
-      <c r="C27" s="80">
+      <c r="H39" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="57">
         <v>3</v>
       </c>
-      <c r="D27" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="104" t="s">
+      <c r="C40" s="59">
+        <v>15</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="106" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="78">
-        <v>2</v>
-      </c>
-      <c r="C28" s="80">
-        <v>4</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="104" t="s">
+      <c r="H40" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="57">
+        <v>1</v>
+      </c>
+      <c r="C41" s="59">
+        <v>16</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="106" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="78">
+      <c r="H41" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="57">
         <v>3</v>
       </c>
-      <c r="C29" s="80">
+      <c r="C42" s="59">
+        <v>16</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="57">
+        <v>1</v>
+      </c>
+      <c r="C43" s="59">
+        <v>14</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="57">
+        <v>3</v>
+      </c>
+      <c r="C44" s="59">
+        <v>14</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="57">
         <v>5</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="78">
-        <v>3</v>
-      </c>
-      <c r="C30" s="80">
-        <v>6</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="78">
-        <v>4</v>
-      </c>
-      <c r="C31" s="80">
-        <v>7</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="78">
-        <v>4</v>
-      </c>
-      <c r="C32" s="80">
-        <v>8</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="78">
-        <v>4</v>
-      </c>
-      <c r="C33" s="80">
-        <v>9</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="78">
+      <c r="C45" s="59">
+        <v>15</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="57">
         <v>5</v>
       </c>
-      <c r="C34" s="80">
-        <v>10</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="78">
-        <v>1</v>
-      </c>
-      <c r="C35" s="80">
+      <c r="C46" s="59">
+        <v>16</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="57">
+        <v>5</v>
+      </c>
+      <c r="C47" s="59">
+        <v>14</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="57">
         <v>11</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="78">
-        <v>2</v>
-      </c>
-      <c r="C36" s="80">
-        <v>14</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="78">
-        <v>3</v>
-      </c>
-      <c r="C37" s="80">
-        <v>10</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="C48" s="59">
+        <v>16</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="78">
-        <v>3</v>
-      </c>
-      <c r="C38" s="80">
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="57">
+        <v>11</v>
+      </c>
+      <c r="C49" s="59">
+        <v>17</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="57">
         <v>13</v>
       </c>
-      <c r="D38" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="5" t="s">
+      <c r="C50" s="59">
+        <v>16</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="78">
-        <v>1</v>
-      </c>
-      <c r="C39" s="80">
-        <v>15</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="78">
-        <v>3</v>
-      </c>
-      <c r="C40" s="80">
-        <v>15</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="78">
-        <v>1</v>
-      </c>
-      <c r="C41" s="80">
-        <v>16</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="78">
-        <v>3</v>
-      </c>
-      <c r="C42" s="80">
-        <v>16</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="78">
-        <v>1</v>
-      </c>
-      <c r="C43" s="80">
-        <v>14</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="78">
-        <v>3</v>
-      </c>
-      <c r="C44" s="80">
-        <v>14</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H44" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="78">
-        <v>5</v>
-      </c>
-      <c r="C45" s="80">
-        <v>15</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="78">
-        <v>5</v>
-      </c>
-      <c r="C46" s="80">
-        <v>16</v>
-      </c>
-      <c r="D46" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="78">
-        <v>5</v>
-      </c>
-      <c r="C47" s="80">
-        <v>14</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="78">
-        <v>11</v>
-      </c>
-      <c r="C48" s="80">
-        <v>16</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P48"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="78">
-        <v>11</v>
-      </c>
-      <c r="C49" s="80">
-        <v>17</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="P49"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="78">
-        <v>13</v>
-      </c>
-      <c r="C50" s="80">
-        <v>16</v>
-      </c>
-      <c r="D50" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="P50"/>
     </row>

--- a/ExampleHPV.xlsx
+++ b/ExampleHPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3E68C-4B09-4BF7-8FAF-657A2A6CB287}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C515DE0B-7992-41A7-90AB-91EE53AAC354}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2554D456-704E-47B2-8776-2A80BE5C709C}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="197">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -580,6 +580,51 @@
   </si>
   <si>
     <t>"not applicable"</t>
+  </si>
+  <si>
+    <t>Decides</t>
+  </si>
+  <si>
+    <t>Test risk</t>
+  </si>
+  <si>
+    <t>Test meaning</t>
+  </si>
+  <si>
+    <t>definitely cancer</t>
+  </si>
+  <si>
+    <t>probably cancer</t>
+  </si>
+  <si>
+    <t>likely cancer</t>
+  </si>
+  <si>
+    <t>query cancer</t>
+  </si>
+  <si>
+    <t>cause for concer</t>
+  </si>
+  <si>
+    <t>need more info</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>bad test</t>
+  </si>
+  <si>
+    <t>may be cured</t>
+  </si>
+  <si>
+    <t>too old</t>
+  </si>
+  <si>
+    <t>special needs</t>
+  </si>
+  <si>
+    <t>no cancer</t>
   </si>
 </sst>
 </file>
@@ -714,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -963,6 +1008,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -970,7 +1030,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1038,15 +1098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1265,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,44 +1304,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1611,11 +1689,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1632,7 +1710,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1643,7 +1721,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1652,7 +1730,7 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1739,7 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1670,7 +1748,7 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1757,7 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1766,7 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="93" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1699,7 +1777,7 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="93"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1708,7 +1786,7 @@
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1795,7 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1804,7 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="94"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1813,7 @@
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1746,7 +1824,7 @@
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1755,7 +1833,7 @@
       <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1764,7 +1842,7 @@
       <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
@@ -1781,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBD2BD4-A6AD-49C0-8B65-071B41868E4A}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,26 +1871,32 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="88"/>
-    </row>
-    <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="C2" s="85"/>
+    </row>
+    <row r="3" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="D3" s="111" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="109" t="s">
         <v>109</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1822,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F764835-93D8-43D9-8976-5A5A359D9B56}">
-  <dimension ref="B2:X30"/>
+  <dimension ref="B2:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="N1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,6 +1929,7 @@
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
     <col min="16" max="16" width="42.88671875" customWidth="1"/>
     <col min="17" max="17" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
     <col min="19" max="19" width="5.77734375" customWidth="1"/>
     <col min="20" max="20" width="17.109375" customWidth="1"/>
     <col min="22" max="22" width="15.88671875" customWidth="1"/>
@@ -1852,239 +1937,265 @@
     <col min="24" max="24" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-    </row>
-    <row r="3" spans="2:24" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="2:25" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="114" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50">
+      <c r="R3" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="47">
         <v>1</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="38" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R4" s="115" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
         <v>125</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="39" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="36" t="s">
         <v>38</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R5" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="39" t="s">
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="36" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R6" s="113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="39" t="s">
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="36" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R7" s="113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="39" t="s">
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="36" t="s">
         <v>42</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R8" s="113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="14"/>
@@ -2096,30 +2207,33 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="37"/>
+      <c r="N9" s="36" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="81" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R9" s="113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="103" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2128,38 +2242,41 @@
         <v>114</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="39" t="s">
+      <c r="M10" s="37"/>
+      <c r="N10" s="36" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="P10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="81" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R10" s="113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="39" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O11" s="12" t="s">
@@ -2168,11 +2285,14 @@
       <c r="P11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="81" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R11" s="113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <v>9</v>
       </c>
@@ -2182,18 +2302,18 @@
       <c r="D12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="40" t="s">
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -2202,30 +2322,33 @@
       <c r="P12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="81" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R12" s="113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="40" t="s">
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O13" s="12" t="s">
@@ -2234,11 +2357,14 @@
       <c r="P13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="81" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R13" s="113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <v>11</v>
       </c>
@@ -2248,192 +2374,210 @@
       <c r="D14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="39" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R14" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="39" t="s">
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R15" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>13</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="11" t="s">
         <v>115</v>
       </c>
       <c r="L16" s="11"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="39" t="s">
+      <c r="M16" s="37"/>
+      <c r="N16" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="81" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>14</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
       <c r="K17" s="11" t="s">
         <v>115</v>
       </c>
       <c r="L17" s="11"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="39" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="81" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="39" t="s">
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="51" t="s">
+      <c r="P18" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <v>16</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="39" t="s">
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="51" t="s">
+      <c r="P19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <v>17</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
@@ -2444,26 +2588,29 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="39" t="s">
+      <c r="M20" s="37"/>
+      <c r="N20" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="P20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <v>18</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="11"/>
@@ -2474,26 +2621,29 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="37"/>
+      <c r="N21" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="51" t="s">
+      <c r="P21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
@@ -2504,10 +2654,10 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="12" t="s">
@@ -2516,16 +2666,19 @@
       <c r="P22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="81" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
@@ -2536,26 +2689,29 @@
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="39" t="s">
+      <c r="M23" s="37"/>
+      <c r="N23" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="51" t="s">
+      <c r="P23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <v>21</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="11"/>
@@ -2566,28 +2722,31 @@
         <v>116</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="51" t="s">
+      <c r="P24" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="81" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>22</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="11"/>
@@ -2600,10 +2759,10 @@
       <c r="L25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O25" s="12" t="s">
@@ -2612,16 +2771,19 @@
       <c r="P25" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="81" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="11" t="s">
@@ -2636,10 +2798,10 @@
       <c r="L26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O26" s="12" t="s">
@@ -2648,32 +2810,35 @@
       <c r="P26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="81" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <v>24</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="28" t="s">
         <v>117</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O27" s="12" t="s">
@@ -2682,16 +2847,19 @@
       <c r="P27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
         <v>25</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="11"/>
@@ -2702,10 +2870,10 @@
         <v>118</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O28" s="12" t="s">
@@ -2714,16 +2882,19 @@
       <c r="P28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="81" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>26</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
@@ -2732,21 +2903,24 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="39" t="s">
+      <c r="M29" s="37"/>
+      <c r="N29" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="17">
         <v>27</v>
       </c>
@@ -2760,42 +2934,25 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="39" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="36" t="s">
         <v>112</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="51" t="s">
+      <c r="P30" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="81" t="s">
         <v>63</v>
+      </c>
+      <c r="R30" s="113" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
     <mergeCell ref="C20:C29"/>
     <mergeCell ref="D20:D29"/>
     <mergeCell ref="K18:K19"/>
@@ -2807,6 +2964,26 @@
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2817,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAA9557-7F8C-4447-A4A9-CE3D3E9FD43D}">
   <dimension ref="B2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,18 +3019,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="71" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="16"/>
@@ -2862,80 +3039,80 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>139</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47">
         <v>64</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="58">
         <v>1</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="58" t="s">
         <v>140</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="61">
+      <c r="M4" s="73"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="58">
         <v>1</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="74" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2947,13 +3124,13 @@
       <c r="F5" s="17">
         <v>72</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="52">
         <v>2</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="52" t="s">
         <v>141</v>
       </c>
       <c r="J5"/>
@@ -2964,11 +3141,11 @@
         <v>70</v>
       </c>
       <c r="M5" s="19"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="55">
+      <c r="N5" s="79"/>
+      <c r="O5" s="52">
         <v>2</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="72" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2980,13 +3157,13 @@
       <c r="F6" s="17">
         <v>64</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="52">
         <v>3</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="52" t="s">
         <v>142</v>
       </c>
       <c r="J6"/>
@@ -2997,11 +3174,11 @@
       <c r="M6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="55">
+      <c r="N6" s="79"/>
+      <c r="O6" s="52">
         <v>3</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P6" s="72" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3013,13 +3190,13 @@
       <c r="F7" s="17">
         <v>72</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="52">
         <v>4</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="52" t="s">
         <v>143</v>
       </c>
       <c r="J7" s="22"/>
@@ -3030,11 +3207,11 @@
       <c r="M7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="55">
+      <c r="N7" s="79"/>
+      <c r="O7" s="52">
         <v>4</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="72" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3046,13 +3223,13 @@
       <c r="F8" s="17">
         <v>64</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="52">
         <v>5</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="52" t="s">
         <v>144</v>
       </c>
       <c r="J8" s="20"/>
@@ -3063,11 +3240,11 @@
         <v>76</v>
       </c>
       <c r="M8" s="19"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="55">
+      <c r="N8" s="79"/>
+      <c r="O8" s="52">
         <v>5</v>
       </c>
-      <c r="P8" s="75" t="s">
+      <c r="P8" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3079,13 +3256,13 @@
       <c r="F9" s="17">
         <v>72</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="52">
         <v>6</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="52" t="s">
         <v>145</v>
       </c>
       <c r="J9" s="20"/>
@@ -3096,11 +3273,11 @@
         <v>78</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="55">
+      <c r="N9" s="79"/>
+      <c r="O9" s="52">
         <v>6</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3112,13 +3289,13 @@
       <c r="F10" s="17">
         <v>64</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="52">
         <v>7</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="52" t="s">
         <v>146</v>
       </c>
       <c r="J10" s="20"/>
@@ -3129,11 +3306,11 @@
       <c r="M10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="55">
+      <c r="N10" s="79"/>
+      <c r="O10" s="52">
         <v>7</v>
       </c>
-      <c r="P10" s="75" t="s">
+      <c r="P10" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3145,13 +3322,13 @@
       <c r="F11" s="17">
         <v>72</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="52">
         <v>8</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="52" t="s">
         <v>147</v>
       </c>
       <c r="J11" s="20"/>
@@ -3162,11 +3339,11 @@
       <c r="M11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="55">
+      <c r="N11" s="79"/>
+      <c r="O11" s="52">
         <v>8</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3180,13 +3357,13 @@
       <c r="F12" s="17">
         <v>64</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="52">
         <v>9</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="52" t="s">
         <v>148</v>
       </c>
       <c r="J12" s="21"/>
@@ -3197,11 +3374,11 @@
       <c r="M12" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="55">
+      <c r="N12" s="79"/>
+      <c r="O12" s="52">
         <v>9</v>
       </c>
-      <c r="P12" s="75" t="s">
+      <c r="P12" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3215,13 +3392,13 @@
       <c r="F13" s="17">
         <v>72</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="52">
         <v>10</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="52" t="s">
         <v>149</v>
       </c>
       <c r="J13" s="21"/>
@@ -3230,13 +3407,13 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="52">
         <v>10</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="P13" s="72" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3248,13 +3425,13 @@
       <c r="F14" s="17">
         <v>22</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="52">
         <v>11</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="52" t="s">
         <v>150</v>
       </c>
       <c r="J14" s="21"/>
@@ -3263,11 +3440,11 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="55">
+      <c r="N14" s="79"/>
+      <c r="O14" s="52">
         <v>11</v>
       </c>
-      <c r="P14" s="75" t="s">
+      <c r="P14" s="72" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3281,13 +3458,13 @@
       <c r="F15" s="17">
         <v>64</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="52">
         <v>12</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="52" t="s">
         <v>151</v>
       </c>
       <c r="J15" s="21"/>
@@ -3298,11 +3475,11 @@
         <v>53</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="55">
+      <c r="N15" s="79"/>
+      <c r="O15" s="52">
         <v>12</v>
       </c>
-      <c r="P15" s="75" t="s">
+      <c r="P15" s="72" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3316,13 +3493,13 @@
       <c r="F16" s="17">
         <v>64</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="52">
         <v>13</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="52" t="s">
         <v>152</v>
       </c>
       <c r="J16" s="21"/>
@@ -3331,11 +3508,11 @@
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="55">
+      <c r="N16" s="79"/>
+      <c r="O16" s="52">
         <v>13</v>
       </c>
-      <c r="P16" s="75" t="s">
+      <c r="P16" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3349,11 +3526,11 @@
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="55">
+      <c r="N17" s="79"/>
+      <c r="O17" s="52">
         <v>14</v>
       </c>
-      <c r="P17" s="75" t="s">
+      <c r="P17" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3369,11 +3546,11 @@
         <v>93</v>
       </c>
       <c r="M18" s="19"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="55">
+      <c r="N18" s="79"/>
+      <c r="O18" s="52">
         <v>15</v>
       </c>
-      <c r="P18" s="75" t="s">
+      <c r="P18" s="72" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3389,11 +3566,11 @@
         <v>95</v>
       </c>
       <c r="M19" s="19"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="55">
+      <c r="N19" s="79"/>
+      <c r="O19" s="52">
         <v>16</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="72" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3407,11 +3584,11 @@
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="55">
+      <c r="N20" s="79"/>
+      <c r="O20" s="52">
         <v>17</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="P20" s="72" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3427,7 +3604,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>153</v>
       </c>
       <c r="C23" s="16"/>
@@ -3440,177 +3617,177 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="76" t="s">
         <v>139</v>
       </c>
       <c r="L24" s="18"/>
       <c r="P24"/>
     </row>
     <row r="25" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52">
+      <c r="B25" s="49">
         <v>1</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="62">
         <v>1</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="85" t="s">
+      <c r="J25" s="82" t="s">
         <v>164</v>
       </c>
       <c r="P25"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="57">
+      <c r="B26" s="54">
         <v>1</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="56">
         <v>2</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="110" t="s">
+      <c r="F26" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="85" t="s">
+      <c r="J26" s="82" t="s">
         <v>164</v>
       </c>
       <c r="P26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="57">
+      <c r="B27" s="54">
         <v>2</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="56">
         <v>3</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="110" t="s">
+      <c r="F27" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="57">
+      <c r="B28" s="54">
         <v>2</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="56">
         <v>4</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="110" t="s">
+      <c r="F28" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="85" t="s">
+      <c r="J28" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="57">
+      <c r="B29" s="54">
         <v>3</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="56">
         <v>5</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="54" t="s">
         <v>41</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -3618,28 +3795,28 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="57">
+      <c r="B30" s="54">
         <v>3</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="56">
         <v>6</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="110" t="s">
+      <c r="F30" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="54" t="s">
         <v>41</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -3647,28 +3824,28 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="57">
+      <c r="B31" s="54">
         <v>4</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="56">
         <v>7</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="54" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="5" t="s">
@@ -3676,28 +3853,28 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="57">
+      <c r="B32" s="54">
         <v>4</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="56">
         <v>8</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="E32" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="54" t="s">
         <v>43</v>
       </c>
       <c r="J32" s="5" t="s">
@@ -3705,28 +3882,28 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <v>4</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="56">
         <v>9</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="108" t="s">
+      <c r="E33" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="54" t="s">
         <v>43</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -3734,28 +3911,28 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="57">
+      <c r="B34" s="54">
         <v>5</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="56">
         <v>10</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="108" t="s">
+      <c r="E34" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="57" t="s">
+      <c r="I34" s="54" t="s">
         <v>44</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -3763,28 +3940,28 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="57">
+      <c r="B35" s="54">
         <v>1</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="56">
         <v>11</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="108" t="s">
+      <c r="E35" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="110" t="s">
+      <c r="F35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="57" t="s">
+      <c r="I35" s="54" t="s">
         <v>90</v>
       </c>
       <c r="J35" s="5" t="s">
@@ -3792,28 +3969,28 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="57">
+      <c r="B36" s="54">
         <v>2</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="56">
         <v>14</v>
       </c>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="108" t="s">
+      <c r="E36" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="110" t="s">
+      <c r="F36" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="57" t="s">
+      <c r="I36" s="54" t="s">
         <v>51</v>
       </c>
       <c r="J36" s="5" t="s">
@@ -3821,28 +3998,28 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="57">
+      <c r="B37" s="54">
         <v>3</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="56">
         <v>10</v>
       </c>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="108" t="s">
+      <c r="E37" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="H37" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="54" t="s">
         <v>52</v>
       </c>
       <c r="J37" s="5" t="s">
@@ -3850,28 +4027,28 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="57">
+      <c r="B38" s="54">
         <v>3</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="56">
         <v>13</v>
       </c>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="108" t="s">
+      <c r="E38" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="54" t="s">
         <v>55</v>
       </c>
       <c r="J38" s="5" t="s">
@@ -3879,28 +4056,28 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="57">
+      <c r="B39" s="54">
         <v>1</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="56">
         <v>15</v>
       </c>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="108" t="s">
+      <c r="E39" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="54" t="s">
         <v>56</v>
       </c>
       <c r="J39" s="5" t="s">
@@ -3908,28 +4085,28 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="57">
+      <c r="B40" s="54">
         <v>3</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="56">
         <v>15</v>
       </c>
-      <c r="D40" s="109" t="s">
+      <c r="D40" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="54" t="s">
         <v>56</v>
       </c>
       <c r="J40" s="5" t="s">
@@ -3937,28 +4114,28 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="57">
+      <c r="B41" s="54">
         <v>1</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="56">
         <v>16</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="G41" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="54" t="s">
         <v>56</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -3966,28 +4143,28 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="57">
+      <c r="B42" s="54">
         <v>3</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="56">
         <v>16</v>
       </c>
-      <c r="D42" s="109" t="s">
+      <c r="D42" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="84" t="s">
+      <c r="G42" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="54" t="s">
         <v>56</v>
       </c>
       <c r="J42" s="5" t="s">
@@ -3995,28 +4172,28 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="57">
+      <c r="B43" s="54">
         <v>1</v>
       </c>
-      <c r="C43" s="59">
+      <c r="C43" s="56">
         <v>14</v>
       </c>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="H43" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="54" t="s">
         <v>57</v>
       </c>
       <c r="J43" s="5" t="s">
@@ -4024,28 +4201,28 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="57">
+      <c r="B44" s="54">
         <v>3</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="56">
         <v>14</v>
       </c>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="E44" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="84" t="s">
+      <c r="G44" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="54" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -4053,28 +4230,28 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="57">
+      <c r="B45" s="54">
         <v>5</v>
       </c>
-      <c r="C45" s="59">
+      <c r="C45" s="56">
         <v>15</v>
       </c>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="110" t="s">
+      <c r="E45" s="89" t="s">
         <v>48</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="G45" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="54" t="s">
         <v>58</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -4082,28 +4259,28 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="57">
+      <c r="B46" s="54">
         <v>5</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="56">
         <v>16</v>
       </c>
-      <c r="D46" s="109" t="s">
+      <c r="D46" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="110" t="s">
+      <c r="E46" s="89" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="84" t="s">
+      <c r="G46" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="54" t="s">
         <v>58</v>
       </c>
       <c r="J46" s="5" t="s">
@@ -4111,28 +4288,28 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="57">
+      <c r="B47" s="54">
         <v>5</v>
       </c>
-      <c r="C47" s="59">
+      <c r="C47" s="56">
         <v>14</v>
       </c>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="110" t="s">
+      <c r="E47" s="89" t="s">
         <v>48</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="84" t="s">
+      <c r="G47" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -4140,28 +4317,28 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="57">
+      <c r="B48" s="54">
         <v>11</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="56">
         <v>16</v>
       </c>
-      <c r="D48" s="109" t="s">
+      <c r="D48" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="84" t="s">
+      <c r="G48" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="54" t="s">
         <v>60</v>
       </c>
       <c r="J48" s="5" t="s">
@@ -4170,28 +4347,28 @@
       <c r="P48"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="57">
+      <c r="B49" s="54">
         <v>11</v>
       </c>
-      <c r="C49" s="59">
+      <c r="C49" s="56">
         <v>17</v>
       </c>
-      <c r="D49" s="109" t="s">
+      <c r="D49" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="110" t="s">
+      <c r="F49" s="89" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="57" t="s">
+      <c r="I49" s="54" t="s">
         <v>64</v>
       </c>
       <c r="J49" s="5" t="s">
@@ -4200,28 +4377,28 @@
       <c r="P49"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="57">
+      <c r="B50" s="54">
         <v>13</v>
       </c>
-      <c r="C50" s="59">
+      <c r="C50" s="56">
         <v>16</v>
       </c>
-      <c r="D50" s="109" t="s">
+      <c r="D50" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="108" t="s">
+      <c r="E50" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="84" t="s">
+      <c r="G50" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="57" t="s">
+      <c r="I50" s="54" t="s">
         <v>108</v>
       </c>
       <c r="J50" s="5" t="s">
